--- a/data/trans_bre/IP19C06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C06-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,83%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>318,0%</t>
+          <t>119,8%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,78</t>
+          <t>-2,23; 1,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,74</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,59</t>
+          <t>-1,34; 3,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-10,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>119,8%</t>
+          <t>318,0%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,89; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,12</t>
+          <t>-1,12; 1,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>-0,94; 0,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,18</t>
+          <t>-0,16; 2,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">

--- a/data/trans_bre/IP19C06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C06-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -725,17 +725,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>-7,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>119,8%</t>
+          <t>21,79%</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,12</t>
+          <t>-2,46; 1,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 5,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,18</t>
+          <t>-3,03; 2,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>318,0%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,78</t>
+          <t>0,0; 3,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,59</t>
+          <t>0,54; 5,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,22 +920,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,24%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>101,37%</t>
+          <t>-17,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>256,53%</t>
+          <t>143,56%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,0</t>
+          <t>-2,31; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,42</t>
+          <t>-1,84; 2,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,1</t>
+          <t>-1,64; 0,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,21</t>
+          <t>-0,72; 2,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,95; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,13 +1003,121 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,74; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>50,24%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>101,37%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>256,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 0,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,72; 1,48</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 0,94</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 2,41</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-79,79; 850,24</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-44,8; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP19C06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C06-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,51</t>
+          <t>-2,51; 1,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,65</t>
+          <t>0,0; 5,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,77</t>
+          <t>-3,36; 3,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,62</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,05</t>
+          <t>0,55; 5,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,0</t>
+          <t>-2,51; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,44</t>
+          <t>-1,65; 2,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,86</t>
+          <t>-1,63; 0,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,2</t>
+          <t>-0,76; 2,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,0</t>
+          <t>-1,2; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,48</t>
+          <t>-0,76; 1,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,94</t>
+          <t>-0,38; 1,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,41</t>
+          <t>-0,04; 2,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-79,79; 850,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-44,8; —</t>
+          <t>-44,85; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C06-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>3,81%</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,53</t>
+          <t>-2,47; 1,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,7</t>
+          <t>0,0; 5,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,05</t>
+          <t>-4,52; 2,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,86</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,45</t>
+          <t>0,55; 5,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>143,56%</t>
+          <t>103,4%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 0,0</t>
+          <t>-2,52; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,62</t>
+          <t>-1,81; 2,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,86</t>
+          <t>-1,65; 0,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,26</t>
+          <t>-0,98; 2,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>256,53%</t>
+          <t>199,63%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,0</t>
+          <t>-1,12; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,42</t>
+          <t>-0,69; 1,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,08</t>
+          <t>-0,38; 1,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,32</t>
+          <t>-0,18; 2,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,95; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-44,85; —</t>
+          <t>-52,24; —</t>
         </is>
       </c>
     </row>
